--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="21">
   <si>
     <t>E1</t>
   </si>
@@ -54,9 +54,6 @@
     <t>E4</t>
   </si>
   <si>
-    <t>A =  0,5M - 0,5M       B = 1,5M - 1,5M       C = 0,5M - 1,5M       D = 1,5M - 0,5M</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -66,10 +63,25 @@
     <t>Semana</t>
   </si>
   <si>
-    <t>TRATAMIENTO</t>
+    <t>Colmena</t>
   </si>
   <si>
-    <t>Colmena</t>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>PROB</t>
+  </si>
+  <si>
+    <t>TRAT</t>
+  </si>
+  <si>
+    <t>A =  0.5M - 0.5M       B = 1.5M - 1.5M       C = 0.5M - 1.5M       D = 1.5M - 0.5M</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -589,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG135"/>
+  <dimension ref="A1:BI135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,48 +612,49 @@
     <col min="1" max="1" width="11.44140625" style="7"/>
     <col min="2" max="2" width="12" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="1" customWidth="1"/>
     <col min="23" max="23" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.33203125" style="1" customWidth="1"/>
-    <col min="25" max="27" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4" style="1" customWidth="1"/>
-    <col min="31" max="31" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="43" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="12.109375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="6.88671875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="7.109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="8.88671875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.6640625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="8.44140625" style="1" customWidth="1"/>
-    <col min="52" max="52" width="9.88671875" style="1" customWidth="1"/>
-    <col min="53" max="54" width="9.44140625" style="1" customWidth="1"/>
-    <col min="55" max="55" width="8.6640625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="7.6640625" style="1" customWidth="1"/>
-    <col min="57" max="59" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="1012" width="12.109375" style="1" customWidth="1"/>
-    <col min="1013" max="16384" width="11.44140625" style="1"/>
+    <col min="24" max="24" width="8.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" style="1" customWidth="1"/>
+    <col min="27" max="29" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="4" style="1" customWidth="1"/>
+    <col min="33" max="33" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="45" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="12.109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="6.88671875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.109375" style="1" customWidth="1"/>
+    <col min="51" max="51" width="8.88671875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="7.6640625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="8.44140625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="9.88671875" style="1" customWidth="1"/>
+    <col min="55" max="56" width="9.44140625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="8.6640625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="7.6640625" style="1" customWidth="1"/>
+    <col min="59" max="61" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="1014" width="12.109375" style="1" customWidth="1"/>
+    <col min="1015" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -649,8 +662,8 @@
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
@@ -662,53 +675,57 @@
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
       <c r="T1" s="20"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>3</v>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>3</v>
@@ -725,9 +742,15 @@
       <c r="K3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -738,16 +761,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -761,9 +784,15 @@
       <c r="K4" s="7">
         <v>1</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -774,32 +803,38 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -810,16 +845,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -828,14 +863,20 @@
         <v>1</v>
       </c>
       <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -846,16 +887,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -864,14 +905,20 @@
         <v>1</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -882,32 +929,38 @@
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
       <c r="G8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
       </c>
       <c r="J8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="7">
         <v>1</v>
       </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -918,14 +971,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
       <c r="G9" s="9">
         <v>0</v>
       </c>
@@ -941,9 +994,15 @@
       <c r="K9" s="9">
         <v>0</v>
       </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -954,32 +1013,38 @@
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
       <c r="G10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="9">
         <v>1</v>
       </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -990,19 +1055,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
       <c r="G11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -1013,9 +1078,15 @@
       <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -1026,16 +1097,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
       <c r="G12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1047,11 +1118,17 @@
         <v>1</v>
       </c>
       <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -1062,32 +1139,38 @@
         <v>10</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
         <v>1</v>
       </c>
       <c r="K13" s="9">
         <v>1</v>
       </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -1098,32 +1181,38 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
       </c>
       <c r="K14" s="9">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1134,32 +1223,38 @@
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="9">
-        <v>1</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
         <v>1</v>
       </c>
       <c r="K15" s="9">
         <v>1</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -1170,32 +1265,38 @@
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
         <v>1</v>
       </c>
       <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -1206,32 +1307,38 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
       </c>
       <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -1242,32 +1349,38 @@
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="I18" s="9">
-        <v>1</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
         <v>1</v>
       </c>
       <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1278,32 +1391,38 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="I19" s="9">
-        <v>1</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
         <v>1</v>
       </c>
       <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -1314,32 +1433,38 @@
         <v>17</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="I20" s="9">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9">
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
         <v>1</v>
       </c>
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
@@ -1350,32 +1475,38 @@
         <v>18</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
       </c>
       <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
@@ -1386,32 +1517,38 @@
         <v>19</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9">
-        <v>1</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
       </c>
       <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
@@ -1422,32 +1559,38 @@
         <v>20</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G23" s="9">
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -1458,32 +1601,38 @@
         <v>21</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="I24" s="9">
-        <v>1</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
         <v>1</v>
       </c>
       <c r="K24" s="9">
         <v>1</v>
       </c>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L24" s="9">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
@@ -1494,13 +1643,13 @@
         <v>22</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -1517,9 +1666,15 @@
       <c r="K25" s="7">
         <v>0</v>
       </c>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
@@ -1530,13 +1685,13 @@
         <v>23</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -1545,17 +1700,23 @@
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="7">
         <v>1</v>
       </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L26" s="7">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -1566,19 +1727,19 @@
         <v>24</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
       <c r="G27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
@@ -1589,9 +1750,15 @@
       <c r="K27" s="7">
         <v>1</v>
       </c>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L27" s="7">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
@@ -1602,14 +1769,14 @@
         <v>25</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
       <c r="G28" s="7">
         <v>0</v>
       </c>
@@ -1625,9 +1792,15 @@
       <c r="K28" s="7">
         <v>0</v>
       </c>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
@@ -1638,19 +1811,19 @@
         <v>26</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
       <c r="G29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -1661,9 +1834,15 @@
       <c r="K29" s="7">
         <v>1</v>
       </c>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L29" s="7">
+        <v>1</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
@@ -1674,16 +1853,16 @@
         <v>27</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
       <c r="G30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -1697,9 +1876,15 @@
       <c r="K30" s="7">
         <v>1</v>
       </c>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="7">
+        <v>1</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
@@ -1710,32 +1895,38 @@
         <v>28</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="7">
         <v>0</v>
       </c>
       <c r="K31" s="7">
-        <v>1</v>
-      </c>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -1746,13 +1937,13 @@
         <v>29</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G32" s="9">
         <v>0</v>
@@ -1767,11 +1958,17 @@
         <v>0</v>
       </c>
       <c r="K32" s="9">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
@@ -1782,32 +1979,38 @@
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="7">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>7</v>
       </c>
@@ -1818,16 +2021,16 @@
         <v>31</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -1841,9 +2044,15 @@
       <c r="K34" s="7">
         <v>1</v>
       </c>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="7">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -1854,16 +2063,16 @@
         <v>32</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -1877,9 +2086,15 @@
       <c r="K35" s="7">
         <v>1</v>
       </c>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L35" s="7">
+        <v>1</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>7</v>
       </c>
@@ -1890,19 +2105,19 @@
         <v>33</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
         <v>1</v>
@@ -1911,11 +2126,17 @@
         <v>1</v>
       </c>
       <c r="K36" s="7">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="7">
+        <v>1</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>7</v>
       </c>
@@ -1926,16 +2147,16 @@
         <v>34</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -1947,11 +2168,17 @@
         <v>1</v>
       </c>
       <c r="K37" s="7">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>1</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
@@ -1962,16 +2189,16 @@
         <v>35</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -1985,9 +2212,15 @@
       <c r="K38" s="7">
         <v>1</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L38" s="7">
+        <v>1</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>7</v>
       </c>
@@ -1998,13 +2231,13 @@
         <v>36</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G39" s="9">
         <v>0</v>
@@ -2013,17 +2246,23 @@
         <v>0</v>
       </c>
       <c r="I39" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="9">
         <v>1</v>
       </c>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L39" s="9">
+        <v>1</v>
+      </c>
+      <c r="M39" s="9">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>7</v>
       </c>
@@ -2034,16 +2273,16 @@
         <v>37</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
       <c r="G40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -2057,9 +2296,15 @@
       <c r="K40" s="7">
         <v>1</v>
       </c>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L40" s="7">
+        <v>1</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>7</v>
       </c>
@@ -2070,32 +2315,38 @@
         <v>38</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9">
-        <v>1</v>
-      </c>
       <c r="G41" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="9">
         <v>1</v>
       </c>
       <c r="I41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="9">
         <v>1</v>
       </c>
       <c r="K41" s="9">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="9">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>7</v>
       </c>
@@ -2106,16 +2357,16 @@
         <v>39</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -2129,9 +2380,15 @@
       <c r="K42" s="7">
         <v>1</v>
       </c>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L42" s="7">
+        <v>1</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>7</v>
       </c>
@@ -2142,16 +2399,16 @@
         <v>40</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0</v>
-      </c>
-      <c r="F43" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G43" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="9">
         <v>1</v>
@@ -2165,9 +2422,15 @@
       <c r="K43" s="9">
         <v>1</v>
       </c>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L43" s="9">
+        <v>1</v>
+      </c>
+      <c r="M43" s="9">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
@@ -2178,32 +2441,38 @@
         <v>41</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>
       </c>
       <c r="H44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="7">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -2214,13 +2483,13 @@
         <v>42</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -2237,9 +2506,15 @@
       <c r="K45" s="7">
         <v>0</v>
       </c>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>7</v>
       </c>
@@ -2250,16 +2525,16 @@
         <v>43</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -2271,11 +2546,17 @@
         <v>1</v>
       </c>
       <c r="K46" s="7">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="7">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
@@ -2286,13 +2567,13 @@
         <v>44</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="7">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
@@ -2309,9 +2590,15 @@
       <c r="K47" s="7">
         <v>0</v>
       </c>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
@@ -2322,13 +2609,13 @@
         <v>45</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G48" s="7">
         <v>0</v>
@@ -2345,9 +2632,15 @@
       <c r="K48" s="7">
         <v>0</v>
       </c>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
@@ -2358,16 +2651,16 @@
         <v>46</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="9">
-        <v>0</v>
-      </c>
-      <c r="F49" s="9">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="9">
         <v>1</v>
@@ -2376,14 +2669,20 @@
         <v>1</v>
       </c>
       <c r="J49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="9">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>7</v>
       </c>
@@ -2394,16 +2693,16 @@
         <v>47</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G50" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="9">
         <v>1</v>
@@ -2415,11 +2714,17 @@
         <v>1</v>
       </c>
       <c r="K50" s="9">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L50" s="9">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>7</v>
       </c>
@@ -2430,16 +2735,16 @@
         <v>48</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="9">
         <v>1</v>
@@ -2453,9 +2758,15 @@
       <c r="K51" s="9">
         <v>1</v>
       </c>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="9">
+        <v>1</v>
+      </c>
+      <c r="M51" s="9">
+        <v>1</v>
+      </c>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>7</v>
       </c>
@@ -2466,13 +2777,13 @@
         <v>49</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="7">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G52" s="7">
         <v>0</v>
@@ -2481,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7">
         <v>0</v>
@@ -2489,9 +2800,15 @@
       <c r="K52" s="7">
         <v>1</v>
       </c>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>1</v>
+      </c>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>7</v>
       </c>
@@ -2502,16 +2819,16 @@
         <v>50</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="7">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -2525,9 +2842,15 @@
       <c r="K53" s="7">
         <v>1</v>
       </c>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="7">
+        <v>1</v>
+      </c>
+      <c r="M53" s="7">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>7</v>
       </c>
@@ -2538,16 +2861,16 @@
         <v>51</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G54" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -2559,11 +2882,17 @@
         <v>1</v>
       </c>
       <c r="K54" s="7">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L54" s="7">
+        <v>1</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>7</v>
       </c>
@@ -2574,19 +2903,19 @@
         <v>52</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G55" s="9">
         <v>0</v>
       </c>
       <c r="H55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="9">
         <v>0</v>
@@ -2597,9 +2926,15 @@
       <c r="K55" s="9">
         <v>0</v>
       </c>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L55" s="9">
+        <v>0</v>
+      </c>
+      <c r="M55" s="9">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>7</v>
       </c>
@@ -2610,16 +2945,16 @@
         <v>53</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -2633,9 +2968,15 @@
       <c r="K56" s="7">
         <v>1</v>
       </c>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L56" s="7">
+        <v>1</v>
+      </c>
+      <c r="M56" s="7">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>7</v>
       </c>
@@ -2646,16 +2987,16 @@
         <v>54</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57" s="9">
-        <v>1</v>
-      </c>
       <c r="G57" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="9">
         <v>1</v>
@@ -2664,14 +3005,20 @@
         <v>1</v>
       </c>
       <c r="J57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="9">
         <v>1</v>
       </c>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L57" s="9">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
@@ -2682,32 +3029,38 @@
         <v>55</v>
       </c>
       <c r="D58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="9">
-        <v>1</v>
-      </c>
       <c r="G58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="9">
         <v>1</v>
       </c>
       <c r="I58" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="9">
         <v>1</v>
       </c>
       <c r="K58" s="9">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
+        <v>1</v>
+      </c>
+      <c r="M58" s="9">
+        <v>1</v>
+      </c>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
@@ -2718,14 +3071,14 @@
         <v>56</v>
       </c>
       <c r="D59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
-        <v>0</v>
-      </c>
       <c r="G59" s="9">
         <v>0</v>
       </c>
@@ -2733,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="9">
         <v>0</v>
@@ -2741,9 +3094,15 @@
       <c r="K59" s="9">
         <v>1</v>
       </c>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L59" s="9">
+        <v>0</v>
+      </c>
+      <c r="M59" s="9">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>7</v>
       </c>
@@ -2754,19 +3113,19 @@
         <v>57</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G60" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="9">
         <v>1</v>
@@ -2777,9 +3136,15 @@
       <c r="K60" s="9">
         <v>1</v>
       </c>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L60" s="9">
+        <v>1</v>
+      </c>
+      <c r="M60" s="9">
+        <v>1</v>
+      </c>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>7</v>
       </c>
@@ -2790,16 +3155,16 @@
         <v>58</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="7">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -2813,9 +3178,15 @@
       <c r="K61" s="7">
         <v>1</v>
       </c>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L61" s="7">
+        <v>1</v>
+      </c>
+      <c r="M61" s="7">
+        <v>1</v>
+      </c>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>7</v>
       </c>
@@ -2826,16 +3197,16 @@
         <v>59</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="7">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G62" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
@@ -2849,9 +3220,15 @@
       <c r="K62" s="7">
         <v>1</v>
       </c>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L62" s="7">
+        <v>1</v>
+      </c>
+      <c r="M62" s="7">
+        <v>1</v>
+      </c>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>7</v>
       </c>
@@ -2862,19 +3239,19 @@
         <v>60</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G63" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="9">
         <v>1</v>
@@ -2885,9 +3262,15 @@
       <c r="K63" s="9">
         <v>1</v>
       </c>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="9">
+        <v>1</v>
+      </c>
+      <c r="M63" s="9">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>7</v>
       </c>
@@ -2898,32 +3281,38 @@
         <v>61</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G64" s="9">
         <v>0</v>
       </c>
       <c r="H64" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="9">
         <v>1</v>
       </c>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="9">
+        <v>0</v>
+      </c>
+      <c r="M64" s="9">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>7</v>
       </c>
@@ -2934,13 +3323,13 @@
         <v>62</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="7">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G65" s="7">
         <v>0</v>
@@ -2949,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7">
         <v>0</v>
@@ -2957,9 +3346,15 @@
       <c r="K65" s="7">
         <v>1</v>
       </c>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="7">
+        <v>0</v>
+      </c>
+      <c r="M65" s="7">
+        <v>1</v>
+      </c>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>7</v>
       </c>
@@ -2970,32 +3365,38 @@
         <v>63</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="7">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G66" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
       </c>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L66" s="7">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>7</v>
       </c>
@@ -3006,16 +3407,16 @@
         <v>64</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="7">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G67" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -3029,9 +3430,15 @@
       <c r="K67" s="7">
         <v>1</v>
       </c>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L67" s="7">
+        <v>1</v>
+      </c>
+      <c r="M67" s="7">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>7</v>
       </c>
@@ -3042,16 +3449,16 @@
         <v>65</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="9">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G68" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="9">
         <v>1</v>
@@ -3060,14 +3467,20 @@
         <v>1</v>
       </c>
       <c r="J68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="9">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L68" s="9">
+        <v>0</v>
+      </c>
+      <c r="M68" s="9">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
@@ -3078,32 +3491,38 @@
         <v>66</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="7">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G69" s="7">
         <v>0</v>
       </c>
       <c r="H69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
         <v>0</v>
       </c>
       <c r="J69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
       </c>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="7">
+        <v>0</v>
+      </c>
+      <c r="M69" s="7">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>8</v>
       </c>
@@ -3114,19 +3533,19 @@
         <v>67</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="7">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G70" s="7">
         <v>0</v>
       </c>
       <c r="H70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="7">
         <v>0</v>
@@ -3137,9 +3556,15 @@
       <c r="K70" s="7">
         <v>0</v>
       </c>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="7">
+        <v>0</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>8</v>
       </c>
@@ -3150,22 +3575,22 @@
         <v>68</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="7">
-        <v>0</v>
-      </c>
-      <c r="F71" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G71" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="7">
         <v>1</v>
@@ -3173,9 +3598,15 @@
       <c r="K71" s="7">
         <v>0</v>
       </c>
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="7">
+        <v>1</v>
+      </c>
+      <c r="M71" s="7">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>8</v>
       </c>
@@ -3186,13 +3617,13 @@
         <v>69</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="7">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G72" s="7">
         <v>0</v>
@@ -3201,17 +3632,23 @@
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="7">
         <v>1</v>
       </c>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L72" s="7">
+        <v>1</v>
+      </c>
+      <c r="M72" s="7">
+        <v>1</v>
+      </c>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>8</v>
       </c>
@@ -3222,32 +3659,38 @@
         <v>70</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="7">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G73" s="7">
         <v>0</v>
       </c>
       <c r="H73" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="7">
         <v>0</v>
       </c>
       <c r="J73" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
       </c>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="7">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>8</v>
       </c>
@@ -3258,22 +3701,22 @@
         <v>71</v>
       </c>
       <c r="D74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="7">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7">
-        <v>0</v>
-      </c>
       <c r="G74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="7">
         <v>0</v>
@@ -3281,9 +3724,15 @@
       <c r="K74" s="7">
         <v>0</v>
       </c>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>8</v>
       </c>
@@ -3294,14 +3743,14 @@
         <v>72</v>
       </c>
       <c r="D75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="7">
-        <v>0</v>
-      </c>
-      <c r="F75" s="7">
-        <v>0</v>
-      </c>
       <c r="G75" s="7">
         <v>0</v>
       </c>
@@ -3317,9 +3766,15 @@
       <c r="K75" s="7">
         <v>0</v>
       </c>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="7">
+        <v>0</v>
+      </c>
+      <c r="M75" s="7">
+        <v>0</v>
+      </c>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>8</v>
       </c>
@@ -3330,19 +3785,19 @@
         <v>73</v>
       </c>
       <c r="D76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="7">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>1</v>
-      </c>
       <c r="G76" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="7">
         <v>1</v>
@@ -3351,11 +3806,17 @@
         <v>0</v>
       </c>
       <c r="K76" s="7">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="7">
+        <v>0</v>
+      </c>
+      <c r="M76" s="7">
+        <v>0</v>
+      </c>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>8</v>
       </c>
@@ -3366,22 +3827,22 @@
         <v>74</v>
       </c>
       <c r="D77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="7">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7">
-        <v>0</v>
-      </c>
       <c r="G77" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="7">
         <v>0</v>
@@ -3389,9 +3850,15 @@
       <c r="K77" s="7">
         <v>0</v>
       </c>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="7">
+        <v>0</v>
+      </c>
+      <c r="M77" s="7">
+        <v>0</v>
+      </c>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>8</v>
       </c>
@@ -3402,19 +3869,19 @@
         <v>75</v>
       </c>
       <c r="D78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="7">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7">
-        <v>1</v>
-      </c>
       <c r="G78" s="7">
         <v>0</v>
       </c>
       <c r="H78" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="7">
         <v>0</v>
@@ -3423,11 +3890,17 @@
         <v>0</v>
       </c>
       <c r="K78" s="7">
-        <v>1</v>
-      </c>
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0</v>
+      </c>
+      <c r="M78" s="7">
+        <v>1</v>
+      </c>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>8</v>
       </c>
@@ -3438,16 +3911,16 @@
         <v>76</v>
       </c>
       <c r="D79" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="7">
-        <v>0</v>
-      </c>
-      <c r="F79" s="7">
-        <v>1</v>
-      </c>
       <c r="G79" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -3461,9 +3934,15 @@
       <c r="K79" s="7">
         <v>1</v>
       </c>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L79" s="7">
+        <v>1</v>
+      </c>
+      <c r="M79" s="7">
+        <v>1</v>
+      </c>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>8</v>
       </c>
@@ -3474,14 +3953,14 @@
         <v>77</v>
       </c>
       <c r="D80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="7">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
-        <v>0</v>
-      </c>
       <c r="G80" s="7">
         <v>0</v>
       </c>
@@ -3497,9 +3976,15 @@
       <c r="K80" s="7">
         <v>0</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L80" s="7">
+        <v>0</v>
+      </c>
+      <c r="M80" s="7">
+        <v>0</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>8</v>
       </c>
@@ -3510,13 +3995,13 @@
         <v>78</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="7">
-        <v>0</v>
-      </c>
-      <c r="F81" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G81" s="7">
         <v>0</v>
@@ -3533,9 +4018,15 @@
       <c r="K81" s="7">
         <v>0</v>
       </c>
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L81" s="7">
+        <v>0</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0</v>
+      </c>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>8</v>
       </c>
@@ -3546,13 +4037,13 @@
         <v>79</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="7">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G82" s="7">
         <v>0</v>
@@ -3564,14 +4055,20 @@
         <v>0</v>
       </c>
       <c r="J82" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="7">
-        <v>1</v>
-      </c>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L82" s="7">
+        <v>1</v>
+      </c>
+      <c r="M82" s="7">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>8</v>
       </c>
@@ -3582,13 +4079,13 @@
         <v>80</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="7">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G83" s="7">
         <v>0</v>
@@ -3597,17 +4094,23 @@
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="7">
         <v>1</v>
       </c>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L83" s="7">
+        <v>1</v>
+      </c>
+      <c r="M83" s="7">
+        <v>1</v>
+      </c>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>8</v>
       </c>
@@ -3618,32 +4121,38 @@
         <v>81</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="7">
-        <v>0</v>
-      </c>
-      <c r="F84" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G84" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
       </c>
       <c r="I84" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="7">
         <v>1</v>
       </c>
       <c r="K84" s="7">
-        <v>1</v>
-      </c>
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="7">
+        <v>1</v>
+      </c>
+      <c r="M84" s="7">
+        <v>1</v>
+      </c>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>8</v>
       </c>
@@ -3654,32 +4163,38 @@
         <v>82</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="7">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G85" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
       </c>
       <c r="I85" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="7">
         <v>1</v>
       </c>
       <c r="K85" s="7">
-        <v>1</v>
-      </c>
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="7">
+        <v>1</v>
+      </c>
+      <c r="M85" s="7">
+        <v>1</v>
+      </c>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>8</v>
       </c>
@@ -3690,32 +4205,38 @@
         <v>83</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="7">
-        <v>0</v>
-      </c>
-      <c r="F86" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G86" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
       </c>
       <c r="I86" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="7">
         <v>1</v>
       </c>
       <c r="K86" s="7">
-        <v>1</v>
-      </c>
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="7">
+        <v>1</v>
+      </c>
+      <c r="M86" s="7">
+        <v>1</v>
+      </c>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>8</v>
       </c>
@@ -3726,32 +4247,38 @@
         <v>84</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="7">
-        <v>0</v>
-      </c>
-      <c r="F87" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G87" s="7">
         <v>0</v>
       </c>
       <c r="H87" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="7">
-        <v>0</v>
-      </c>
-      <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>8</v>
       </c>
@@ -3762,32 +4289,38 @@
         <v>85</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="7">
-        <v>0</v>
-      </c>
-      <c r="F88" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G88" s="7">
         <v>0</v>
       </c>
       <c r="H88" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" s="7">
         <v>0</v>
       </c>
       <c r="J88" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="7">
         <v>0</v>
       </c>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="7">
+        <v>0</v>
+      </c>
+      <c r="M88" s="7">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>8</v>
       </c>
@@ -3798,13 +4331,13 @@
         <v>86</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="7">
-        <v>0</v>
-      </c>
-      <c r="F89" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G89" s="7">
         <v>0</v>
@@ -3821,9 +4354,15 @@
       <c r="K89" s="7">
         <v>0</v>
       </c>
-      <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L89" s="7">
+        <v>0</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>8</v>
       </c>
@@ -3834,16 +4373,16 @@
         <v>87</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="7">
-        <v>0</v>
-      </c>
-      <c r="F90" s="7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G90" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" s="7">
         <v>1</v>
@@ -3857,9 +4396,15 @@
       <c r="K90" s="7">
         <v>1</v>
       </c>
-      <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L90" s="7">
+        <v>1</v>
+      </c>
+      <c r="M90" s="7">
+        <v>1</v>
+      </c>
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>8</v>
       </c>
@@ -3870,16 +4415,16 @@
         <v>88</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="7">
-        <v>0</v>
-      </c>
-      <c r="F91" s="7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G91" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="7">
         <v>1</v>
@@ -3891,11 +4436,17 @@
         <v>1</v>
       </c>
       <c r="K91" s="7">
-        <v>0</v>
-      </c>
-      <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L91" s="7">
+        <v>1</v>
+      </c>
+      <c r="M91" s="7">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>9</v>
       </c>
@@ -3906,32 +4457,38 @@
         <v>89</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G92" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" s="9">
         <v>1</v>
       </c>
       <c r="J92" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="9">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L92" s="9">
+        <v>0</v>
+      </c>
+      <c r="M92" s="9">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>9</v>
       </c>
@@ -3942,32 +4499,38 @@
         <v>90</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="9">
-        <v>0</v>
-      </c>
-      <c r="F93" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G93" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="9">
         <v>1</v>
       </c>
       <c r="J93" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="9">
         <v>1</v>
       </c>
-      <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="9">
+        <v>1</v>
+      </c>
+      <c r="M93" s="9">
+        <v>1</v>
+      </c>
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>9</v>
       </c>
@@ -3978,16 +4541,16 @@
         <v>91</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="9">
-        <v>0</v>
-      </c>
-      <c r="F94" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G94" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="9">
         <v>1</v>
@@ -3996,14 +4559,20 @@
         <v>1</v>
       </c>
       <c r="J94" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="9">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L94" s="9">
+        <v>0</v>
+      </c>
+      <c r="M94" s="9">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>9</v>
       </c>
@@ -4014,19 +4583,19 @@
         <v>92</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="9">
-        <v>0</v>
-      </c>
-      <c r="F95" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G95" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="9">
         <v>1</v>
@@ -4035,11 +4604,17 @@
         <v>0</v>
       </c>
       <c r="K95" s="9">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L95" s="9">
+        <v>0</v>
+      </c>
+      <c r="M95" s="9">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>9</v>
       </c>
@@ -4050,16 +4625,16 @@
         <v>93</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="9">
-        <v>0</v>
-      </c>
-      <c r="F96" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G96" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="9">
         <v>1</v>
@@ -4071,11 +4646,17 @@
         <v>1</v>
       </c>
       <c r="K96" s="9">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L96" s="9">
+        <v>1</v>
+      </c>
+      <c r="M96" s="9">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>9</v>
       </c>
@@ -4086,16 +4667,16 @@
         <v>94</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="9">
-        <v>0</v>
-      </c>
-      <c r="F97" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G97" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="9">
         <v>1</v>
@@ -4104,14 +4685,20 @@
         <v>1</v>
       </c>
       <c r="J97" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="9">
         <v>1</v>
       </c>
-      <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="9">
+        <v>0</v>
+      </c>
+      <c r="M97" s="9">
+        <v>1</v>
+      </c>
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>9</v>
       </c>
@@ -4122,22 +4709,22 @@
         <v>95</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="9">
-        <v>0</v>
-      </c>
-      <c r="F98" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G98" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" s="9">
         <v>0</v>
@@ -4145,9 +4732,15 @@
       <c r="K98" s="9">
         <v>0</v>
       </c>
-      <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="9">
+        <v>0</v>
+      </c>
+      <c r="M98" s="9">
+        <v>0</v>
+      </c>
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>9</v>
       </c>
@@ -4158,22 +4751,22 @@
         <v>96</v>
       </c>
       <c r="D99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="9">
-        <v>0</v>
-      </c>
-      <c r="F99" s="9">
-        <v>0</v>
-      </c>
       <c r="G99" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="9">
         <v>0</v>
       </c>
       <c r="I99" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="9">
         <v>0</v>
@@ -4181,9 +4774,15 @@
       <c r="K99" s="9">
         <v>0</v>
       </c>
-      <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="9">
+        <v>0</v>
+      </c>
+      <c r="M99" s="9">
+        <v>0</v>
+      </c>
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>9</v>
       </c>
@@ -4194,14 +4793,14 @@
         <v>97</v>
       </c>
       <c r="D100" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="9">
-        <v>0</v>
-      </c>
-      <c r="F100" s="9">
-        <v>0</v>
-      </c>
       <c r="G100" s="9">
         <v>0</v>
       </c>
@@ -4212,14 +4811,20 @@
         <v>0</v>
       </c>
       <c r="J100" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="9">
-        <v>1</v>
-      </c>
-      <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="9">
+        <v>1</v>
+      </c>
+      <c r="M100" s="9">
+        <v>1</v>
+      </c>
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>9</v>
       </c>
@@ -4230,32 +4835,38 @@
         <v>98</v>
       </c>
       <c r="D101" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="9">
-        <v>0</v>
-      </c>
-      <c r="F101" s="9">
-        <v>1</v>
-      </c>
       <c r="G101" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="9">
         <v>1</v>
       </c>
       <c r="I101" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" s="9">
         <v>1</v>
       </c>
       <c r="K101" s="9">
-        <v>1</v>
-      </c>
-      <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="9">
+        <v>1</v>
+      </c>
+      <c r="M101" s="9">
+        <v>1</v>
+      </c>
+      <c r="N101" s="2"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>9</v>
       </c>
@@ -4266,14 +4877,14 @@
         <v>99</v>
       </c>
       <c r="D102" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="9">
-        <v>0</v>
-      </c>
-      <c r="F102" s="9">
-        <v>0</v>
-      </c>
       <c r="G102" s="9">
         <v>0</v>
       </c>
@@ -4289,9 +4900,15 @@
       <c r="K102" s="9">
         <v>0</v>
       </c>
-      <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L102" s="9">
+        <v>0</v>
+      </c>
+      <c r="M102" s="9">
+        <v>0</v>
+      </c>
+      <c r="N102" s="2"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>9</v>
       </c>
@@ -4302,16 +4919,16 @@
         <v>100</v>
       </c>
       <c r="D103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="9">
-        <v>0</v>
-      </c>
-      <c r="F103" s="9">
-        <v>1</v>
-      </c>
       <c r="G103" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" s="9">
         <v>1</v>
@@ -4325,9 +4942,15 @@
       <c r="K103" s="9">
         <v>1</v>
       </c>
-      <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L103" s="9">
+        <v>1</v>
+      </c>
+      <c r="M103" s="9">
+        <v>1</v>
+      </c>
+      <c r="N103" s="2"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>9</v>
       </c>
@@ -4338,16 +4961,16 @@
         <v>101</v>
       </c>
       <c r="D104" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="9">
-        <v>0</v>
-      </c>
-      <c r="F104" s="9">
-        <v>1</v>
-      </c>
       <c r="G104" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" s="9">
         <v>1</v>
@@ -4359,11 +4982,17 @@
         <v>1</v>
       </c>
       <c r="K104" s="9">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L104" s="9">
+        <v>1</v>
+      </c>
+      <c r="M104" s="9">
+        <v>0</v>
+      </c>
+      <c r="N104" s="2"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>9</v>
       </c>
@@ -4374,32 +5003,38 @@
         <v>102</v>
       </c>
       <c r="D105" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="9">
-        <v>0</v>
-      </c>
-      <c r="F105" s="9">
-        <v>1</v>
-      </c>
       <c r="G105" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="9">
         <v>0</v>
       </c>
-      <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L105" s="9">
+        <v>1</v>
+      </c>
+      <c r="M105" s="9">
+        <v>0</v>
+      </c>
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>9</v>
       </c>
@@ -4410,19 +5045,19 @@
         <v>103</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="9">
-        <v>0</v>
-      </c>
-      <c r="F106" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G106" s="9">
         <v>0</v>
       </c>
       <c r="H106" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" s="9">
         <v>0</v>
@@ -4433,9 +5068,15 @@
       <c r="K106" s="9">
         <v>0</v>
       </c>
-      <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L106" s="9">
+        <v>0</v>
+      </c>
+      <c r="M106" s="9">
+        <v>0</v>
+      </c>
+      <c r="N106" s="2"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>9</v>
       </c>
@@ -4446,16 +5087,16 @@
         <v>104</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="9">
-        <v>0</v>
-      </c>
-      <c r="F107" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G107" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="9">
         <v>1</v>
@@ -4467,11 +5108,17 @@
         <v>1</v>
       </c>
       <c r="K107" s="9">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L107" s="9">
+        <v>1</v>
+      </c>
+      <c r="M107" s="9">
+        <v>0</v>
+      </c>
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>9</v>
       </c>
@@ -4482,13 +5129,13 @@
         <v>105</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="9">
-        <v>0</v>
-      </c>
-      <c r="F108" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G108" s="9">
         <v>0</v>
@@ -4500,14 +5147,20 @@
         <v>0</v>
       </c>
       <c r="J108" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="9">
         <v>0</v>
       </c>
-      <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L108" s="9">
+        <v>1</v>
+      </c>
+      <c r="M108" s="9">
+        <v>0</v>
+      </c>
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>9</v>
       </c>
@@ -4518,32 +5171,38 @@
         <v>106</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="9">
-        <v>0</v>
-      </c>
-      <c r="F109" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G109" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" s="9">
         <v>1</v>
       </c>
       <c r="J109" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="9">
         <v>1</v>
       </c>
-      <c r="L109" s="2"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L109" s="9">
+        <v>1</v>
+      </c>
+      <c r="M109" s="9">
+        <v>1</v>
+      </c>
+      <c r="N109" s="2"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>9</v>
       </c>
@@ -4554,16 +5213,16 @@
         <v>107</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="9">
-        <v>0</v>
-      </c>
-      <c r="F110" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G110" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="9">
         <v>1</v>
@@ -4575,11 +5234,17 @@
         <v>1</v>
       </c>
       <c r="K110" s="9">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L110" s="9">
+        <v>1</v>
+      </c>
+      <c r="M110" s="9">
+        <v>0</v>
+      </c>
+      <c r="N110" s="2"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>9</v>
       </c>
@@ -4590,32 +5255,38 @@
         <v>108</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="9">
-        <v>0</v>
-      </c>
-      <c r="F111" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G111" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="9">
         <v>0</v>
       </c>
-      <c r="L111" s="2"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L111" s="9">
+        <v>1</v>
+      </c>
+      <c r="M111" s="9">
+        <v>0</v>
+      </c>
+      <c r="N111" s="2"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>9</v>
       </c>
@@ -4626,32 +5297,38 @@
         <v>109</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="9">
-        <v>0</v>
-      </c>
-      <c r="F112" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G112" s="9">
         <v>0</v>
       </c>
       <c r="H112" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" s="9">
         <v>0</v>
       </c>
       <c r="J112" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="9">
-        <v>1</v>
-      </c>
-      <c r="L112" s="2"/>
-    </row>
-    <row r="113" spans="1:59" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L112" s="9">
+        <v>1</v>
+      </c>
+      <c r="M112" s="9">
+        <v>1</v>
+      </c>
+      <c r="N112" s="2"/>
+    </row>
+    <row r="113" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>9</v>
       </c>
@@ -4662,32 +5339,38 @@
         <v>110</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="9">
-        <v>0</v>
-      </c>
-      <c r="F113" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G113" s="9">
         <v>0</v>
       </c>
       <c r="H113" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" s="9">
         <v>0</v>
       </c>
       <c r="J113" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="9">
-        <v>1</v>
-      </c>
-      <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="1:59" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L113" s="9">
+        <v>1</v>
+      </c>
+      <c r="M113" s="9">
+        <v>1</v>
+      </c>
+      <c r="N113" s="2"/>
+    </row>
+    <row r="114" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>9</v>
       </c>
@@ -4698,16 +5381,16 @@
         <v>111</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="9">
-        <v>0</v>
-      </c>
-      <c r="F114" s="9">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G114" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" s="9">
         <v>1</v>
@@ -4719,11 +5402,17 @@
         <v>1</v>
       </c>
       <c r="K114" s="9">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="1:59" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L114" s="9">
+        <v>1</v>
+      </c>
+      <c r="M114" s="9">
+        <v>0</v>
+      </c>
+      <c r="N114" s="2"/>
+    </row>
+    <row r="115" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>9</v>
       </c>
@@ -4734,32 +5423,38 @@
         <v>112</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="9">
-        <v>0</v>
-      </c>
-      <c r="F115" s="9">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G115" s="9">
         <v>0</v>
       </c>
       <c r="H115" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" s="9">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="1:59" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L115" s="9">
+        <v>1</v>
+      </c>
+      <c r="M115" s="9">
+        <v>0</v>
+      </c>
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>9</v>
       </c>
@@ -4770,13 +5465,13 @@
         <v>113</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="9">
-        <v>0</v>
-      </c>
-      <c r="F116" s="9">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G116" s="9">
         <v>0</v>
@@ -4785,17 +5480,23 @@
         <v>0</v>
       </c>
       <c r="I116" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" s="9">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2"/>
-    </row>
-    <row r="117" spans="1:59" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L116" s="9">
+        <v>1</v>
+      </c>
+      <c r="M116" s="9">
+        <v>0</v>
+      </c>
+      <c r="N116" s="2"/>
+    </row>
+    <row r="117" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>9</v>
       </c>
@@ -4806,13 +5507,13 @@
         <v>114</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="9">
-        <v>0</v>
-      </c>
-      <c r="F117" s="9">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G117" s="9">
         <v>0</v>
@@ -4829,9 +5530,15 @@
       <c r="K117" s="9">
         <v>0</v>
       </c>
-      <c r="L117" s="2"/>
-    </row>
-    <row r="118" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="2"/>
+    </row>
+    <row r="118" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>9</v>
       </c>
@@ -4842,16 +5549,16 @@
         <v>115</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="9">
-        <v>0</v>
-      </c>
-      <c r="F118" s="9">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G118" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="9">
         <v>1</v>
@@ -4863,11 +5570,17 @@
         <v>1</v>
       </c>
       <c r="K118" s="9">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2"/>
-    </row>
-    <row r="119" spans="1:59" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L118" s="9">
+        <v>1</v>
+      </c>
+      <c r="M118" s="9">
+        <v>0</v>
+      </c>
+      <c r="N118" s="2"/>
+    </row>
+    <row r="119" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>9</v>
       </c>
@@ -4878,22 +5591,22 @@
         <v>116</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="9">
-        <v>0</v>
-      </c>
-      <c r="F119" s="9">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G119" s="9">
         <v>0</v>
       </c>
       <c r="H119" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="9">
         <v>0</v>
@@ -4901,9 +5614,15 @@
       <c r="K119" s="9">
         <v>1</v>
       </c>
-      <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="L119" s="9">
+        <v>0</v>
+      </c>
+      <c r="M119" s="9">
+        <v>1</v>
+      </c>
+      <c r="N119" s="2"/>
+    </row>
+    <row r="120" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>9</v>
       </c>
@@ -4914,13 +5633,13 @@
         <v>117</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="9">
-        <v>0</v>
-      </c>
-      <c r="F120" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G120" s="9">
         <v>0</v>
@@ -4932,14 +5651,20 @@
         <v>0</v>
       </c>
       <c r="J120" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="9">
-        <v>1</v>
-      </c>
-      <c r="L120" s="2"/>
-    </row>
-    <row r="121" spans="1:59" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L120" s="9">
+        <v>1</v>
+      </c>
+      <c r="M120" s="9">
+        <v>1</v>
+      </c>
+      <c r="N120" s="2"/>
+    </row>
+    <row r="121" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>9</v>
       </c>
@@ -4950,32 +5675,38 @@
         <v>118</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="9">
-        <v>0</v>
-      </c>
-      <c r="F121" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G121" s="9">
         <v>0</v>
       </c>
       <c r="H121" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" s="9">
         <v>0</v>
       </c>
       <c r="J121" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" s="9">
         <v>0</v>
       </c>
-      <c r="L121" s="2"/>
-    </row>
-    <row r="122" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="L121" s="9">
+        <v>1</v>
+      </c>
+      <c r="M121" s="9">
+        <v>0</v>
+      </c>
+      <c r="N121" s="2"/>
+    </row>
+    <row r="122" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>9</v>
       </c>
@@ -4986,22 +5717,22 @@
         <v>119</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="9">
-        <v>0</v>
-      </c>
-      <c r="F122" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G122" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="9">
         <v>1</v>
@@ -5009,9 +5740,15 @@
       <c r="K122" s="9">
         <v>0</v>
       </c>
-      <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="L122" s="9">
+        <v>1</v>
+      </c>
+      <c r="M122" s="9">
+        <v>0</v>
+      </c>
+      <c r="N122" s="2"/>
+    </row>
+    <row r="123" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>9</v>
       </c>
@@ -5022,13 +5759,13 @@
         <v>120</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="9">
-        <v>0</v>
-      </c>
-      <c r="F123" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G123" s="9">
         <v>0</v>
@@ -5045,9 +5782,15 @@
       <c r="K123" s="9">
         <v>0</v>
       </c>
-      <c r="L123" s="2"/>
-    </row>
-    <row r="124" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="L123" s="9">
+        <v>0</v>
+      </c>
+      <c r="M123" s="9">
+        <v>0</v>
+      </c>
+      <c r="N123" s="2"/>
+    </row>
+    <row r="124" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>9</v>
       </c>
@@ -5058,32 +5801,38 @@
         <v>121</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="9">
-        <v>0</v>
-      </c>
-      <c r="F124" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G124" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="9">
         <v>1</v>
       </c>
       <c r="I124" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="9">
         <v>0</v>
       </c>
-      <c r="L124" s="2"/>
-    </row>
-    <row r="125" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="L124" s="9">
+        <v>0</v>
+      </c>
+      <c r="M124" s="9">
+        <v>0</v>
+      </c>
+      <c r="N124" s="2"/>
+    </row>
+    <row r="125" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>9</v>
       </c>
@@ -5094,13 +5843,13 @@
         <v>122</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="9">
-        <v>0</v>
-      </c>
-      <c r="F125" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G125" s="9">
         <v>0</v>
@@ -5117,9 +5866,15 @@
       <c r="K125" s="9">
         <v>0</v>
       </c>
-      <c r="L125" s="2"/>
-    </row>
-    <row r="126" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="L125" s="9">
+        <v>0</v>
+      </c>
+      <c r="M125" s="9">
+        <v>0</v>
+      </c>
+      <c r="N125" s="2"/>
+    </row>
+    <row r="126" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>9</v>
       </c>
@@ -5130,32 +5885,38 @@
         <v>123</v>
       </c>
       <c r="D126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="9">
-        <v>0</v>
-      </c>
-      <c r="F126" s="9">
-        <v>0</v>
-      </c>
       <c r="G126" s="9">
         <v>0</v>
       </c>
       <c r="H126" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" s="9">
         <v>0</v>
       </c>
       <c r="J126" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="9">
         <v>0</v>
       </c>
-      <c r="L126" s="2"/>
-    </row>
-    <row r="127" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="L126" s="9">
+        <v>0</v>
+      </c>
+      <c r="M126" s="9">
+        <v>0</v>
+      </c>
+      <c r="N126" s="2"/>
+    </row>
+    <row r="127" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>9</v>
       </c>
@@ -5166,14 +5927,14 @@
         <v>124</v>
       </c>
       <c r="D127" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E127" s="9">
-        <v>0</v>
-      </c>
-      <c r="F127" s="9">
-        <v>0</v>
-      </c>
       <c r="G127" s="9">
         <v>0</v>
       </c>
@@ -5189,13 +5950,17 @@
       <c r="K127" s="9">
         <v>0</v>
       </c>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
+      <c r="L127" s="9">
+        <v>0</v>
+      </c>
+      <c r="M127" s="9">
+        <v>0</v>
+      </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
-      <c r="Q127" s="5"/>
-      <c r="R127" s="5"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
@@ -5205,10 +5970,10 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
-      <c r="AE127" s="2"/>
-      <c r="AF127" s="2"/>
-      <c r="AG127" s="5"/>
-      <c r="AH127" s="5"/>
+      <c r="AB127" s="5"/>
+      <c r="AC127" s="5"/>
+      <c r="AG127" s="2"/>
+      <c r="AH127" s="2"/>
       <c r="AI127" s="5"/>
       <c r="AJ127" s="5"/>
       <c r="AK127" s="5"/>
@@ -5218,10 +5983,10 @@
       <c r="AO127" s="5"/>
       <c r="AP127" s="5"/>
       <c r="AQ127" s="5"/>
-      <c r="AU127" s="2"/>
-      <c r="AV127" s="2"/>
-      <c r="AW127" s="5"/>
-      <c r="AX127" s="5"/>
+      <c r="AR127" s="5"/>
+      <c r="AS127" s="5"/>
+      <c r="AW127" s="2"/>
+      <c r="AX127" s="2"/>
       <c r="AY127" s="5"/>
       <c r="AZ127" s="5"/>
       <c r="BA127" s="5"/>
@@ -5231,8 +5996,10 @@
       <c r="BE127" s="5"/>
       <c r="BF127" s="5"/>
       <c r="BG127" s="5"/>
-    </row>
-    <row r="128" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH127" s="5"/>
+      <c r="BI127" s="5"/>
+    </row>
+    <row r="128" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>9</v>
       </c>
@@ -5243,14 +6010,14 @@
         <v>125</v>
       </c>
       <c r="D128" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E128" s="9">
-        <v>0</v>
-      </c>
-      <c r="F128" s="9">
-        <v>0</v>
-      </c>
       <c r="G128" s="9">
         <v>0</v>
       </c>
@@ -5266,13 +6033,17 @@
       <c r="K128" s="9">
         <v>0</v>
       </c>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
+      <c r="L128" s="9">
+        <v>0</v>
+      </c>
+      <c r="M128" s="9">
+        <v>0</v>
+      </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
@@ -5282,10 +6053,10 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
       <c r="AA128" s="5"/>
-      <c r="AE128" s="2"/>
-      <c r="AF128" s="2"/>
-      <c r="AG128" s="5"/>
-      <c r="AH128" s="5"/>
+      <c r="AB128" s="5"/>
+      <c r="AC128" s="5"/>
+      <c r="AG128" s="2"/>
+      <c r="AH128" s="2"/>
       <c r="AI128" s="5"/>
       <c r="AJ128" s="5"/>
       <c r="AK128" s="5"/>
@@ -5295,10 +6066,10 @@
       <c r="AO128" s="5"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="5"/>
-      <c r="AU128" s="2"/>
-      <c r="AV128" s="2"/>
-      <c r="AW128" s="5"/>
-      <c r="AX128" s="5"/>
+      <c r="AR128" s="5"/>
+      <c r="AS128" s="5"/>
+      <c r="AW128" s="2"/>
+      <c r="AX128" s="2"/>
       <c r="AY128" s="5"/>
       <c r="AZ128" s="5"/>
       <c r="BA128" s="5"/>
@@ -5308,8 +6079,10 @@
       <c r="BE128" s="5"/>
       <c r="BF128" s="5"/>
       <c r="BG128" s="5"/>
-    </row>
-    <row r="129" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BH128" s="5"/>
+      <c r="BI128" s="5"/>
+    </row>
+    <row r="129" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>9</v>
       </c>
@@ -5320,13 +6093,13 @@
         <v>126</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="9">
-        <v>0</v>
-      </c>
-      <c r="F129" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G129" s="9">
         <v>0</v>
@@ -5343,9 +6116,15 @@
       <c r="K129" s="9">
         <v>0</v>
       </c>
-      <c r="AE129" s="2"/>
-    </row>
-    <row r="130" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="L129" s="9">
+        <v>0</v>
+      </c>
+      <c r="M129" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG129" s="2"/>
+    </row>
+    <row r="130" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>9</v>
       </c>
@@ -5356,19 +6135,19 @@
         <v>127</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="9">
-        <v>0</v>
-      </c>
-      <c r="F130" s="9">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G130" s="9">
         <v>0</v>
       </c>
       <c r="H130" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" s="9">
         <v>0</v>
@@ -5379,18 +6158,24 @@
       <c r="K130" s="9">
         <v>0</v>
       </c>
-      <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
+      <c r="L130" s="9">
+        <v>0</v>
+      </c>
+      <c r="M130" s="9">
+        <v>0</v>
+      </c>
       <c r="U130" s="4"/>
-      <c r="AE130" s="2"/>
-      <c r="AH130" s="4"/>
-      <c r="AI130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="AG130" s="2"/>
       <c r="AJ130" s="4"/>
-      <c r="AX130" s="4"/>
-      <c r="AY130" s="4"/>
+      <c r="AK130" s="4"/>
+      <c r="AL130" s="4"/>
       <c r="AZ130" s="4"/>
-    </row>
-    <row r="131" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BA130" s="4"/>
+      <c r="BB130" s="4"/>
+    </row>
+    <row r="131" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>9</v>
       </c>
@@ -5401,22 +6186,22 @@
         <v>128</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="9">
-        <v>0</v>
-      </c>
-      <c r="F131" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G131" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" s="9">
         <v>0</v>
       </c>
       <c r="I131" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="9">
         <v>0</v>
@@ -5424,9 +6209,15 @@
       <c r="K131" s="9">
         <v>0</v>
       </c>
-      <c r="AE131" s="2"/>
-    </row>
-    <row r="132" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="L131" s="9">
+        <v>0</v>
+      </c>
+      <c r="M131" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG131" s="2"/>
+    </row>
+    <row r="132" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>9</v>
       </c>
@@ -5437,13 +6228,13 @@
         <v>129</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="9">
-        <v>0</v>
-      </c>
-      <c r="F132" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G132" s="9">
         <v>0</v>
@@ -5460,32 +6251,38 @@
       <c r="K132" s="9">
         <v>0</v>
       </c>
-      <c r="S132" s="4"/>
+      <c r="L132" s="9">
+        <v>0</v>
+      </c>
+      <c r="M132" s="9">
+        <v>0</v>
+      </c>
       <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
-      <c r="AH132" s="4"/>
+      <c r="AB132" s="4"/>
+      <c r="AC132" s="4"/>
       <c r="AJ132" s="4"/>
-      <c r="AK132" s="4"/>
       <c r="AL132" s="4"/>
       <c r="AM132" s="4"/>
       <c r="AN132" s="4"/>
       <c r="AO132" s="4"/>
       <c r="AP132" s="4"/>
-      <c r="AX132" s="4"/>
+      <c r="AQ132" s="4"/>
+      <c r="AR132" s="4"/>
       <c r="AZ132" s="4"/>
-      <c r="BA132" s="4"/>
       <c r="BB132" s="4"/>
       <c r="BC132" s="4"/>
       <c r="BD132" s="4"/>
       <c r="BE132" s="4"/>
       <c r="BF132" s="4"/>
-    </row>
-    <row r="133" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG132" s="4"/>
+      <c r="BH132" s="4"/>
+    </row>
+    <row r="133" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>9</v>
       </c>
@@ -5496,13 +6293,13 @@
         <v>130</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="9">
-        <v>0</v>
-      </c>
-      <c r="F133" s="9">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G133" s="9">
         <v>0</v>
@@ -5519,8 +6316,14 @@
       <c r="K133" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="L133" s="9">
+        <v>0</v>
+      </c>
+      <c r="M133" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>9</v>
       </c>
@@ -5531,16 +6334,16 @@
         <v>131</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" s="9">
-        <v>0</v>
-      </c>
-      <c r="F134" s="9">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G134" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" s="9">
         <v>1</v>
@@ -5552,10 +6355,16 @@
         <v>1</v>
       </c>
       <c r="K134" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:58" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L134" s="9">
+        <v>1</v>
+      </c>
+      <c r="M134" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>9</v>
       </c>
@@ -5566,13 +6375,13 @@
         <v>132</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" s="9">
-        <v>0</v>
-      </c>
-      <c r="F135" s="9">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G135" s="9">
         <v>0</v>
@@ -5587,12 +6396,18 @@
         <v>0</v>
       </c>
       <c r="K135" s="9">
+        <v>0</v>
+      </c>
+      <c r="L135" s="9">
+        <v>0</v>
+      </c>
+      <c r="M135" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Milagros Azcueta\Documents\GitHub\TP-FINAL-BIOME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Desktop\Ilán\Biome II\TP FINAL\TP-FINAL-BIOME\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032C4ACA-C647-4F24-8465-967860729EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11232"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sin muertos + Sin 0" sheetId="4" r:id="rId1"/>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +294,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -368,6 +369,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -403,6 +421,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,60 +613,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F133"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
-    <col min="2" max="2" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11" max="13" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="1" customWidth="1"/>
-    <col min="27" max="29" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="1" customWidth="1"/>
+    <col min="27" max="29" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="1" customWidth="1"/>
     <col min="32" max="32" width="4" style="1" customWidth="1"/>
-    <col min="33" max="33" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="45" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="12.109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="6.88671875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.109375" style="1" customWidth="1"/>
-    <col min="51" max="51" width="8.88671875" style="1" customWidth="1"/>
-    <col min="52" max="52" width="7.6640625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="8.44140625" style="1" customWidth="1"/>
-    <col min="54" max="54" width="9.88671875" style="1" customWidth="1"/>
-    <col min="55" max="56" width="9.44140625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="8.6640625" style="1" customWidth="1"/>
-    <col min="58" max="58" width="7.6640625" style="1" customWidth="1"/>
-    <col min="59" max="61" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="1014" width="12.109375" style="1" customWidth="1"/>
-    <col min="1015" max="16384" width="11.44140625" style="1"/>
+    <col min="33" max="33" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="45" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="12.140625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="6.85546875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.140625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="8.85546875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="7.7109375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="8.42578125" style="1" customWidth="1"/>
+    <col min="54" max="54" width="9.85546875" style="1" customWidth="1"/>
+    <col min="55" max="56" width="9.42578125" style="1" customWidth="1"/>
+    <col min="57" max="57" width="8.7109375" style="1" customWidth="1"/>
+    <col min="58" max="58" width="7.7109375" style="1" customWidth="1"/>
+    <col min="59" max="61" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="1014" width="12.140625" style="1" customWidth="1"/>
+    <col min="1015" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
@@ -673,7 +707,7 @@
       </c>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -715,7 +749,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -757,7 +791,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -799,7 +833,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -841,7 +875,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -883,7 +917,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -925,7 +959,7 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -967,7 +1001,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +1043,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1085,7 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1127,7 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1169,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1211,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1253,7 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1295,7 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1337,7 @@
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1379,7 @@
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1421,7 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1463,7 @@
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1471,7 +1505,7 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1513,7 +1547,7 @@
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -1555,7 +1589,7 @@
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1597,7 +1631,7 @@
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1639,7 +1673,7 @@
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1681,7 +1715,7 @@
       </c>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1757,7 @@
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1799,7 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1841,7 @@
       </c>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -1849,7 +1883,7 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -1891,7 +1925,7 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -1933,7 +1967,7 @@
       </c>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -1975,7 +2009,7 @@
       </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2017,7 +2051,7 @@
       </c>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2059,7 +2093,7 @@
       </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2101,7 +2135,7 @@
       </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2143,7 +2177,7 @@
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2185,7 +2219,7 @@
       </c>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +2261,7 @@
       </c>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2269,7 +2303,7 @@
       </c>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2311,7 +2345,7 @@
       </c>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2353,7 +2387,7 @@
       </c>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>6</v>
       </c>
@@ -2395,7 +2429,7 @@
       </c>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>6</v>
       </c>
@@ -2437,7 +2471,7 @@
       </c>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>6</v>
       </c>
@@ -2479,7 +2513,7 @@
       </c>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -2521,7 +2555,7 @@
       </c>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
@@ -2563,7 +2597,7 @@
       </c>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
@@ -2605,7 +2639,7 @@
       </c>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
@@ -2647,7 +2681,7 @@
       </c>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>6</v>
       </c>
@@ -2689,7 +2723,7 @@
       </c>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>6</v>
       </c>
@@ -2731,7 +2765,7 @@
       </c>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
@@ -2773,7 +2807,7 @@
       </c>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
@@ -2815,7 +2849,7 @@
       </c>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>6</v>
       </c>
@@ -2857,7 +2891,7 @@
       </c>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>6</v>
       </c>
@@ -2899,7 +2933,7 @@
       </c>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>6</v>
       </c>
@@ -2941,7 +2975,7 @@
       </c>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>6</v>
       </c>
@@ -2983,7 +3017,7 @@
       </c>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -3025,7 +3059,7 @@
       </c>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
@@ -3067,7 +3101,7 @@
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>6</v>
       </c>
@@ -3109,7 +3143,7 @@
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>6</v>
       </c>
@@ -3151,7 +3185,7 @@
       </c>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>6</v>
       </c>
@@ -3193,7 +3227,7 @@
       </c>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>6</v>
       </c>
@@ -3235,7 +3269,7 @@
       </c>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -3277,7 +3311,7 @@
       </c>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>6</v>
       </c>
@@ -3319,7 +3353,7 @@
       </c>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>6</v>
       </c>
@@ -3361,7 +3395,7 @@
       </c>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>6</v>
       </c>
@@ -3403,7 +3437,7 @@
       </c>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>6</v>
       </c>
@@ -3445,7 +3479,7 @@
       </c>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>7</v>
       </c>
@@ -3487,7 +3521,7 @@
       </c>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>7</v>
       </c>
@@ -3529,7 +3563,7 @@
       </c>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>7</v>
       </c>
@@ -3571,7 +3605,7 @@
       </c>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>7</v>
       </c>
@@ -3613,7 +3647,7 @@
       </c>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>7</v>
       </c>
@@ -3655,7 +3689,7 @@
       </c>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>7</v>
       </c>
@@ -3697,7 +3731,7 @@
       </c>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>7</v>
       </c>
@@ -3739,7 +3773,7 @@
       </c>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -3781,7 +3815,7 @@
       </c>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
@@ -3823,7 +3857,7 @@
       </c>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>7</v>
       </c>
@@ -3865,7 +3899,7 @@
       </c>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>7</v>
       </c>
@@ -3907,7 +3941,7 @@
       </c>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>7</v>
       </c>
@@ -3949,7 +3983,7 @@
       </c>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>7</v>
       </c>
@@ -3991,7 +4025,7 @@
       </c>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>7</v>
       </c>
@@ -4033,7 +4067,7 @@
       </c>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
@@ -4075,7 +4109,7 @@
       </c>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>7</v>
       </c>
@@ -4117,7 +4151,7 @@
       </c>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>7</v>
       </c>
@@ -4159,7 +4193,7 @@
       </c>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>7</v>
       </c>
@@ -4201,7 +4235,7 @@
       </c>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>7</v>
       </c>
@@ -4243,7 +4277,7 @@
       </c>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>7</v>
       </c>
@@ -4285,7 +4319,7 @@
       </c>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
@@ -4327,7 +4361,7 @@
       </c>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>7</v>
       </c>
@@ -4369,7 +4403,7 @@
       </c>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>8</v>
       </c>
@@ -4411,7 +4445,7 @@
       </c>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>8</v>
       </c>
@@ -4453,7 +4487,7 @@
       </c>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>8</v>
       </c>
@@ -4495,7 +4529,7 @@
       </c>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>8</v>
       </c>
@@ -4537,7 +4571,7 @@
       </c>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>8</v>
       </c>
@@ -4579,7 +4613,7 @@
       </c>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>8</v>
       </c>
@@ -4621,7 +4655,7 @@
       </c>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>8</v>
       </c>
@@ -4663,7 +4697,7 @@
       </c>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>8</v>
       </c>
@@ -4705,7 +4739,7 @@
       </c>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>8</v>
       </c>
@@ -4747,7 +4781,7 @@
       </c>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>8</v>
       </c>
@@ -4789,7 +4823,7 @@
       </c>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>8</v>
       </c>
@@ -4831,7 +4865,7 @@
       </c>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>8</v>
       </c>
@@ -4873,7 +4907,7 @@
       </c>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>8</v>
       </c>
@@ -4915,7 +4949,7 @@
       </c>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>8</v>
       </c>
@@ -4957,7 +4991,7 @@
       </c>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>8</v>
       </c>
@@ -4999,7 +5033,7 @@
       </c>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>8</v>
       </c>
@@ -5041,7 +5075,7 @@
       </c>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>8</v>
       </c>
@@ -5083,7 +5117,7 @@
       </c>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>8</v>
       </c>
@@ -5125,7 +5159,7 @@
       </c>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>8</v>
       </c>
@@ -5167,7 +5201,7 @@
       </c>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>8</v>
       </c>
@@ -5209,7 +5243,7 @@
       </c>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>8</v>
       </c>
@@ -5251,7 +5285,7 @@
       </c>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>8</v>
       </c>
@@ -5293,7 +5327,7 @@
       </c>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>8</v>
       </c>
@@ -5335,7 +5369,7 @@
       </c>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>8</v>
       </c>
@@ -5377,7 +5411,7 @@
       </c>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>8</v>
       </c>
@@ -5419,7 +5453,7 @@
       </c>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>8</v>
       </c>
@@ -5461,7 +5495,7 @@
       </c>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>8</v>
       </c>
@@ -5503,7 +5537,7 @@
       </c>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>8</v>
       </c>
@@ -5545,7 +5579,7 @@
       </c>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>8</v>
       </c>
@@ -5587,7 +5621,7 @@
       </c>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>8</v>
       </c>
@@ -5629,7 +5663,7 @@
       </c>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>8</v>
       </c>
@@ -5671,7 +5705,7 @@
       </c>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>8</v>
       </c>
@@ -5713,7 +5747,7 @@
       </c>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>8</v>
       </c>
@@ -5755,7 +5789,7 @@
       </c>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>8</v>
       </c>
@@ -5797,7 +5831,7 @@
       </c>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>8</v>
       </c>
@@ -5839,7 +5873,7 @@
       </c>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>8</v>
       </c>
@@ -5922,7 +5956,7 @@
       <c r="BH125" s="4"/>
       <c r="BI125" s="4"/>
     </row>
-    <row r="126" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>8</v>
       </c>
@@ -6005,7 +6039,7 @@
       <c r="BH126" s="4"/>
       <c r="BI126" s="4"/>
     </row>
-    <row r="127" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>8</v>
       </c>
@@ -6047,7 +6081,7 @@
       </c>
       <c r="AG127" s="2"/>
     </row>
-    <row r="128" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>8</v>
       </c>
@@ -6098,7 +6132,7 @@
       <c r="BA128" s="3"/>
       <c r="BB128" s="3"/>
     </row>
-    <row r="129" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>8</v>
       </c>
@@ -6140,7 +6174,7 @@
       </c>
       <c r="AG129" s="2"/>
     </row>
-    <row r="130" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>8</v>
       </c>
@@ -6205,7 +6239,7 @@
       <c r="BG130" s="3"/>
       <c r="BH130" s="3"/>
     </row>
-    <row r="131" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>8</v>
       </c>
@@ -6246,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>8</v>
       </c>
@@ -6287,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>8</v>
       </c>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Milagros Azcueta\Documents\GitHub\TP-FINAL-BIOME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - cnba.uba.ar\UBA\Biologia\Biometría II\TP-FINAL-BIOME\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16111CD-0E45-42A1-BDD1-399DAC5ACCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11232"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sin muertos + Sin 0" sheetId="4" r:id="rId1"/>
@@ -45,9 +46,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Semana</t>
-  </si>
-  <si>
     <t>ANT</t>
   </si>
   <si>
@@ -80,11 +78,14 @@
   <si>
     <t>TRATAMIENTO</t>
   </si>
+  <si>
+    <t>SEMANA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -356,6 +357,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -391,6 +409,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,73 +601,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.33203125" style="1" customWidth="1"/>
-    <col min="26" max="28" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" style="1" customWidth="1"/>
+    <col min="26" max="28" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="1" customWidth="1"/>
-    <col min="32" max="32" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="44" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="12.109375" style="1" customWidth="1"/>
-    <col min="48" max="48" width="6.88671875" style="1" customWidth="1"/>
-    <col min="49" max="49" width="7.109375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="8.88671875" style="1" customWidth="1"/>
-    <col min="51" max="51" width="7.6640625" style="1" customWidth="1"/>
-    <col min="52" max="52" width="8.44140625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="9.88671875" style="1" customWidth="1"/>
-    <col min="54" max="55" width="9.44140625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="8.6640625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="7.6640625" style="1" customWidth="1"/>
-    <col min="58" max="60" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="1013" width="12.109375" style="1" customWidth="1"/>
-    <col min="1014" max="16384" width="11.44140625" style="1"/>
+    <col min="32" max="32" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="44" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="12.140625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="6.85546875" style="1" customWidth="1"/>
+    <col min="49" max="49" width="7.140625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="7.7109375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="8.42578125" style="1" customWidth="1"/>
+    <col min="53" max="53" width="9.85546875" style="1" customWidth="1"/>
+    <col min="54" max="55" width="9.42578125" style="1" customWidth="1"/>
+    <col min="56" max="56" width="8.7109375" style="1" customWidth="1"/>
+    <col min="57" max="57" width="7.7109375" style="1" customWidth="1"/>
+    <col min="58" max="60" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="1013" width="12.140625" style="1" customWidth="1"/>
+    <col min="1014" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>0</v>
@@ -657,7 +692,7 @@
       </c>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -665,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -696,7 +731,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -704,13 +739,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -735,7 +770,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -743,13 +778,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -774,7 +809,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -782,13 +817,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -813,7 +848,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -821,13 +856,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -852,7 +887,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -860,13 +895,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -891,7 +926,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -899,13 +934,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -930,7 +965,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -938,13 +973,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -969,7 +1004,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -977,13 +1012,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -1008,7 +1043,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -1016,14 +1051,14 @@
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
@@ -1047,7 +1082,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -1055,14 +1090,14 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
@@ -1086,7 +1121,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -1094,14 +1129,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
@@ -1125,7 +1160,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -1133,14 +1168,14 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
@@ -1164,7 +1199,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -1172,14 +1207,14 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F15" s="6">
         <v>0</v>
       </c>
@@ -1203,7 +1238,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -1211,14 +1246,14 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
@@ -1242,7 +1277,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1</v>
       </c>
@@ -1250,14 +1285,14 @@
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F17" s="6">
         <v>0</v>
       </c>
@@ -1281,7 +1316,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -1289,13 +1324,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -1320,7 +1355,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1</v>
       </c>
@@ -1328,13 +1363,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
@@ -1359,7 +1394,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -1367,13 +1402,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -1398,7 +1433,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -1406,13 +1441,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
@@ -1437,7 +1472,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -1445,13 +1480,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -1476,7 +1511,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2</v>
       </c>
@@ -1484,13 +1519,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -1515,7 +1550,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>2</v>
       </c>
@@ -1523,13 +1558,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="6">
         <v>0</v>
@@ -1554,7 +1589,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>2</v>
       </c>
@@ -1562,13 +1597,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
@@ -1593,7 +1628,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>2</v>
       </c>
@@ -1601,13 +1636,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -1632,7 +1667,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>2</v>
       </c>
@@ -1640,13 +1675,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -1671,7 +1706,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>2</v>
       </c>
@@ -1679,13 +1714,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -1710,7 +1745,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>2</v>
       </c>
@@ -1718,14 +1753,14 @@
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F29" s="7">
         <v>0</v>
       </c>
@@ -1749,7 +1784,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>2</v>
       </c>
@@ -1757,14 +1792,14 @@
         <v>29</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F30" s="7">
         <v>0</v>
       </c>
@@ -1788,7 +1823,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>2</v>
       </c>
@@ -1796,14 +1831,14 @@
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F31" s="6">
         <v>0</v>
       </c>
@@ -1827,7 +1862,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>2</v>
       </c>
@@ -1835,14 +1870,14 @@
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F32" s="6">
         <v>0</v>
       </c>
@@ -1866,7 +1901,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>2</v>
       </c>
@@ -1874,14 +1909,14 @@
         <v>32</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
@@ -1905,7 +1940,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>2</v>
       </c>
@@ -1913,13 +1948,13 @@
         <v>33</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="6">
         <v>0</v>
@@ -1944,7 +1979,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>2</v>
       </c>
@@ -1952,13 +1987,13 @@
         <v>34</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
@@ -1983,7 +2018,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>3</v>
       </c>
@@ -1991,13 +2026,13 @@
         <v>35</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="6">
         <v>0</v>
@@ -2022,7 +2057,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>3</v>
       </c>
@@ -2030,13 +2065,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
@@ -2061,7 +2096,7 @@
       </c>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>3</v>
       </c>
@@ -2069,13 +2104,13 @@
         <v>37</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
@@ -2100,7 +2135,7 @@
       </c>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>3</v>
       </c>
@@ -2108,13 +2143,13 @@
         <v>38</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="7">
         <v>0</v>
@@ -2139,7 +2174,7 @@
       </c>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>3</v>
       </c>
@@ -2147,14 +2182,14 @@
         <v>39</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F40" s="6">
         <v>0</v>
       </c>
@@ -2178,7 +2213,7 @@
       </c>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>3</v>
       </c>
@@ -2186,14 +2221,14 @@
         <v>40</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F41" s="7">
         <v>0</v>
       </c>
@@ -2217,7 +2252,7 @@
       </c>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>3</v>
       </c>
@@ -2225,13 +2260,13 @@
         <v>41</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -2256,7 +2291,7 @@
       </c>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>3</v>
       </c>
@@ -2264,13 +2299,13 @@
         <v>42</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
@@ -2295,7 +2330,7 @@
       </c>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>3</v>
       </c>
@@ -2303,13 +2338,13 @@
         <v>43</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
@@ -2334,7 +2369,7 @@
       </c>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>3</v>
       </c>
@@ -2342,13 +2377,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="6">
         <v>0</v>
@@ -2373,7 +2408,7 @@
       </c>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>3</v>
       </c>
@@ -2381,13 +2416,13 @@
         <v>45</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F46" s="6">
         <v>0</v>
@@ -2412,7 +2447,7 @@
       </c>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>3</v>
       </c>
@@ -2420,13 +2455,13 @@
         <v>46</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" s="7">
         <v>0</v>
@@ -2451,7 +2486,7 @@
       </c>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>3</v>
       </c>
@@ -2459,13 +2494,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
@@ -2490,7 +2525,7 @@
       </c>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>4</v>
       </c>
@@ -2498,13 +2533,13 @@
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="7">
         <v>0</v>
@@ -2529,7 +2564,7 @@
       </c>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>4</v>
       </c>
@@ -2537,13 +2572,13 @@
         <v>49</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="6">
         <v>0</v>
@@ -2568,7 +2603,7 @@
       </c>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>4</v>
       </c>
@@ -2576,13 +2611,13 @@
         <v>50</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" s="6">
         <v>0</v>
@@ -2607,7 +2642,7 @@
       </c>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>4</v>
       </c>
@@ -2615,13 +2650,13 @@
         <v>51</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" s="6">
         <v>0</v>
@@ -2646,7 +2681,7 @@
       </c>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>4</v>
       </c>
@@ -2654,13 +2689,13 @@
         <v>52</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="7">
         <v>0</v>
@@ -2685,7 +2720,7 @@
       </c>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>4</v>
       </c>
@@ -2693,13 +2728,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54" s="6">
         <v>0</v>
@@ -2724,7 +2759,7 @@
       </c>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>4</v>
       </c>
@@ -2732,13 +2767,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" s="7">
         <v>0</v>
@@ -2763,7 +2798,7 @@
       </c>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>4</v>
       </c>
@@ -2771,13 +2806,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" s="7">
         <v>0</v>
@@ -2802,7 +2837,7 @@
       </c>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>4</v>
       </c>
@@ -2810,13 +2845,13 @@
         <v>56</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" s="7">
         <v>0</v>
@@ -2841,7 +2876,7 @@
       </c>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>4</v>
       </c>
@@ -2849,14 +2884,14 @@
         <v>57</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F58" s="7">
         <v>0</v>
       </c>
@@ -2880,7 +2915,7 @@
       </c>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>4</v>
       </c>
@@ -2888,14 +2923,14 @@
         <v>58</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F59" s="6">
         <v>0</v>
       </c>
@@ -2919,7 +2954,7 @@
       </c>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>4</v>
       </c>
@@ -2927,14 +2962,14 @@
         <v>59</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F60" s="6">
         <v>0</v>
       </c>
@@ -2958,7 +2993,7 @@
       </c>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>4</v>
       </c>
@@ -2966,14 +3001,14 @@
         <v>60</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F61" s="7">
         <v>0</v>
       </c>
@@ -2997,7 +3032,7 @@
       </c>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>4</v>
       </c>
@@ -3005,14 +3040,14 @@
         <v>61</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F62" s="7">
         <v>0</v>
       </c>
@@ -3036,7 +3071,7 @@
       </c>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>4</v>
       </c>
@@ -3044,13 +3079,13 @@
         <v>62</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F63" s="6">
         <v>0</v>
@@ -3075,7 +3110,7 @@
       </c>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>4</v>
       </c>
@@ -3083,13 +3118,13 @@
         <v>63</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F64" s="6">
         <v>0</v>
@@ -3114,7 +3149,7 @@
       </c>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>4</v>
       </c>
@@ -3122,13 +3157,13 @@
         <v>64</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F65" s="6">
         <v>0</v>
@@ -3153,7 +3188,7 @@
       </c>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>4</v>
       </c>
@@ -3161,13 +3196,13 @@
         <v>65</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F66" s="7">
         <v>0</v>
@@ -3192,7 +3227,7 @@
       </c>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>4</v>
       </c>
@@ -3200,13 +3235,13 @@
         <v>66</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F67" s="6">
         <v>0</v>
@@ -3231,7 +3266,7 @@
       </c>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>5</v>
       </c>
@@ -3239,13 +3274,13 @@
         <v>67</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" s="6">
         <v>0</v>
@@ -3270,7 +3305,7 @@
       </c>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>5</v>
       </c>
@@ -3278,13 +3313,13 @@
         <v>68</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" s="6">
         <v>0</v>
@@ -3309,7 +3344,7 @@
       </c>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>5</v>
       </c>
@@ -3317,13 +3352,13 @@
         <v>69</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F70" s="6">
         <v>0</v>
@@ -3348,7 +3383,7 @@
       </c>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>5</v>
       </c>
@@ -3356,13 +3391,13 @@
         <v>70</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F71" s="6">
         <v>0</v>
@@ -3387,7 +3422,7 @@
       </c>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>5</v>
       </c>
@@ -3395,13 +3430,13 @@
         <v>71</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F72" s="6">
         <v>0</v>
@@ -3426,7 +3461,7 @@
       </c>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>5</v>
       </c>
@@ -3434,13 +3469,13 @@
         <v>72</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" s="6">
         <v>0</v>
@@ -3465,7 +3500,7 @@
       </c>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>5</v>
       </c>
@@ -3473,13 +3508,13 @@
         <v>73</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F74" s="6">
         <v>0</v>
@@ -3504,7 +3539,7 @@
       </c>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>5</v>
       </c>
@@ -3512,13 +3547,13 @@
         <v>74</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F75" s="6">
         <v>0</v>
@@ -3543,7 +3578,7 @@
       </c>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>5</v>
       </c>
@@ -3551,13 +3586,13 @@
         <v>75</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F76" s="6">
         <v>0</v>
@@ -3582,7 +3617,7 @@
       </c>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>5</v>
       </c>
@@ -3590,13 +3625,13 @@
         <v>76</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F77" s="6">
         <v>0</v>
@@ -3621,7 +3656,7 @@
       </c>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>5</v>
       </c>
@@ -3629,13 +3664,13 @@
         <v>77</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78" s="6">
         <v>0</v>
@@ -3660,7 +3695,7 @@
       </c>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>5</v>
       </c>
@@ -3668,14 +3703,14 @@
         <v>78</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F79" s="6">
         <v>0</v>
       </c>
@@ -3699,7 +3734,7 @@
       </c>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>5</v>
       </c>
@@ -3707,14 +3742,14 @@
         <v>79</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F80" s="6">
         <v>0</v>
       </c>
@@ -3738,7 +3773,7 @@
       </c>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>5</v>
       </c>
@@ -3746,14 +3781,14 @@
         <v>80</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F81" s="6">
         <v>0</v>
       </c>
@@ -3777,7 +3812,7 @@
       </c>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>5</v>
       </c>
@@ -3785,14 +3820,14 @@
         <v>81</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F82" s="6">
         <v>0</v>
       </c>
@@ -3816,7 +3851,7 @@
       </c>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>5</v>
       </c>
@@ -3824,14 +3859,14 @@
         <v>82</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F83" s="6">
         <v>0</v>
       </c>
@@ -3855,7 +3890,7 @@
       </c>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>5</v>
       </c>
@@ -3863,14 +3898,14 @@
         <v>83</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F84" s="6">
         <v>0</v>
       </c>
@@ -3894,7 +3929,7 @@
       </c>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>5</v>
       </c>
@@ -3902,13 +3937,13 @@
         <v>84</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F85" s="6">
         <v>0</v>
@@ -3933,7 +3968,7 @@
       </c>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>5</v>
       </c>
@@ -3941,13 +3976,13 @@
         <v>85</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F86" s="6">
         <v>0</v>
@@ -3972,7 +4007,7 @@
       </c>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>5</v>
       </c>
@@ -3980,13 +4015,13 @@
         <v>86</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F87" s="6">
         <v>0</v>
@@ -4011,7 +4046,7 @@
       </c>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>5</v>
       </c>
@@ -4019,13 +4054,13 @@
         <v>87</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F88" s="6">
         <v>0</v>
@@ -4050,7 +4085,7 @@
       </c>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>5</v>
       </c>
@@ -4058,13 +4093,13 @@
         <v>88</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F89" s="6">
         <v>0</v>
@@ -4089,7 +4124,7 @@
       </c>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>6</v>
       </c>
@@ -4097,13 +4132,13 @@
         <v>89</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F90" s="7">
         <v>0</v>
@@ -4128,7 +4163,7 @@
       </c>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>6</v>
       </c>
@@ -4136,13 +4171,13 @@
         <v>90</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F91" s="7">
         <v>0</v>
@@ -4167,7 +4202,7 @@
       </c>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>6</v>
       </c>
@@ -4175,13 +4210,13 @@
         <v>91</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F92" s="7">
         <v>0</v>
@@ -4206,7 +4241,7 @@
       </c>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>6</v>
       </c>
@@ -4214,13 +4249,13 @@
         <v>92</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F93" s="7">
         <v>0</v>
@@ -4245,7 +4280,7 @@
       </c>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>6</v>
       </c>
@@ -4253,13 +4288,13 @@
         <v>93</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F94" s="7">
         <v>0</v>
@@ -4284,7 +4319,7 @@
       </c>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>6</v>
       </c>
@@ -4292,13 +4327,13 @@
         <v>94</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F95" s="7">
         <v>0</v>
@@ -4323,7 +4358,7 @@
       </c>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>6</v>
       </c>
@@ -4331,13 +4366,13 @@
         <v>95</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F96" s="7">
         <v>0</v>
@@ -4362,7 +4397,7 @@
       </c>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>6</v>
       </c>
@@ -4370,13 +4405,13 @@
         <v>96</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F97" s="7">
         <v>0</v>
@@ -4401,7 +4436,7 @@
       </c>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>6</v>
       </c>
@@ -4409,13 +4444,13 @@
         <v>97</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F98" s="7">
         <v>0</v>
@@ -4440,7 +4475,7 @@
       </c>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>6</v>
       </c>
@@ -4448,13 +4483,13 @@
         <v>98</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F99" s="7">
         <v>0</v>
@@ -4479,7 +4514,7 @@
       </c>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>6</v>
       </c>
@@ -4487,13 +4522,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F100" s="7">
         <v>0</v>
@@ -4518,7 +4553,7 @@
       </c>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>6</v>
       </c>
@@ -4526,13 +4561,13 @@
         <v>100</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F101" s="7">
         <v>0</v>
@@ -4557,7 +4592,7 @@
       </c>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>6</v>
       </c>
@@ -4565,13 +4600,13 @@
         <v>101</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F102" s="7">
         <v>0</v>
@@ -4596,7 +4631,7 @@
       </c>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>6</v>
       </c>
@@ -4604,13 +4639,13 @@
         <v>102</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F103" s="7">
         <v>0</v>
@@ -4635,7 +4670,7 @@
       </c>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>6</v>
       </c>
@@ -4643,14 +4678,14 @@
         <v>103</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F104" s="7">
         <v>0</v>
       </c>
@@ -4674,7 +4709,7 @@
       </c>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>6</v>
       </c>
@@ -4682,14 +4717,14 @@
         <v>104</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D105" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F105" s="7">
         <v>0</v>
       </c>
@@ -4713,7 +4748,7 @@
       </c>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>6</v>
       </c>
@@ -4721,14 +4756,14 @@
         <v>105</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D106" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E106" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F106" s="7">
         <v>0</v>
       </c>
@@ -4752,7 +4787,7 @@
       </c>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>6</v>
       </c>
@@ -4760,14 +4795,14 @@
         <v>106</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D107" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F107" s="7">
         <v>0</v>
       </c>
@@ -4791,7 +4826,7 @@
       </c>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>6</v>
       </c>
@@ -4799,14 +4834,14 @@
         <v>107</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F108" s="7">
         <v>0</v>
       </c>
@@ -4830,7 +4865,7 @@
       </c>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>6</v>
       </c>
@@ -4838,14 +4873,14 @@
         <v>108</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D109" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F109" s="7">
         <v>0</v>
       </c>
@@ -4869,7 +4904,7 @@
       </c>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>6</v>
       </c>
@@ -4877,14 +4912,14 @@
         <v>109</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D110" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F110" s="7">
         <v>0</v>
       </c>
@@ -4908,7 +4943,7 @@
       </c>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>6</v>
       </c>
@@ -4916,14 +4951,14 @@
         <v>110</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F111" s="7">
         <v>0</v>
       </c>
@@ -4947,7 +4982,7 @@
       </c>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>6</v>
       </c>
@@ -4955,13 +4990,13 @@
         <v>111</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F112" s="7">
         <v>0</v>
@@ -4986,7 +5021,7 @@
       </c>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>6</v>
       </c>
@@ -4994,13 +5029,13 @@
         <v>112</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F113" s="7">
         <v>0</v>
@@ -5025,7 +5060,7 @@
       </c>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>6</v>
       </c>
@@ -5033,13 +5068,13 @@
         <v>113</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F114" s="7">
         <v>0</v>
@@ -5064,7 +5099,7 @@
       </c>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>6</v>
       </c>
@@ -5072,13 +5107,13 @@
         <v>114</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F115" s="7">
         <v>0</v>
@@ -5103,7 +5138,7 @@
       </c>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>6</v>
       </c>
@@ -5111,13 +5146,13 @@
         <v>115</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F116" s="7">
         <v>0</v>
@@ -5142,7 +5177,7 @@
       </c>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>6</v>
       </c>
@@ -5150,13 +5185,13 @@
         <v>116</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F117" s="7">
         <v>0</v>
@@ -5181,7 +5216,7 @@
       </c>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>7</v>
       </c>
@@ -5189,13 +5224,13 @@
         <v>117</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F118" s="7">
         <v>0</v>
@@ -5220,7 +5255,7 @@
       </c>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>7</v>
       </c>
@@ -5228,13 +5263,13 @@
         <v>118</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F119" s="7">
         <v>0</v>
@@ -5259,7 +5294,7 @@
       </c>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>7</v>
       </c>
@@ -5267,13 +5302,13 @@
         <v>119</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F120" s="7">
         <v>0</v>
@@ -5298,7 +5333,7 @@
       </c>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>7</v>
       </c>
@@ -5306,13 +5341,13 @@
         <v>120</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F121" s="7">
         <v>0</v>
@@ -5337,7 +5372,7 @@
       </c>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>7</v>
       </c>
@@ -5345,13 +5380,13 @@
         <v>121</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" s="7">
         <v>0</v>
@@ -5376,7 +5411,7 @@
       </c>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>7</v>
       </c>
@@ -5384,13 +5419,13 @@
         <v>122</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F123" s="7">
         <v>0</v>
@@ -5415,7 +5450,7 @@
       </c>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>7</v>
       </c>
@@ -5423,13 +5458,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F124" s="7">
         <v>0</v>
@@ -5454,7 +5489,7 @@
       </c>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>7</v>
       </c>
@@ -5462,13 +5497,13 @@
         <v>124</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F125" s="7">
         <v>0</v>
@@ -5534,7 +5569,7 @@
       <c r="BG125" s="4"/>
       <c r="BH125" s="4"/>
     </row>
-    <row r="126" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>7</v>
       </c>
@@ -5542,13 +5577,13 @@
         <v>125</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F126" s="7">
         <v>0</v>
@@ -5614,7 +5649,7 @@
       <c r="BG126" s="4"/>
       <c r="BH126" s="4"/>
     </row>
-    <row r="127" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>7</v>
       </c>
@@ -5622,14 +5657,14 @@
         <v>126</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D127" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F127" s="7">
         <v>0</v>
       </c>
@@ -5653,7 +5688,7 @@
       </c>
       <c r="AF127" s="2"/>
     </row>
-    <row r="128" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>7</v>
       </c>
@@ -5661,13 +5696,13 @@
         <v>127</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D128" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="F128" s="7">
         <v>0</v>
@@ -5701,7 +5736,7 @@
       <c r="AZ128" s="3"/>
       <c r="BA128" s="3"/>
     </row>
-    <row r="129" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>7</v>
       </c>
@@ -5709,14 +5744,14 @@
         <v>128</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D129" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F129" s="7">
         <v>0</v>
       </c>
@@ -5740,7 +5775,7 @@
       </c>
       <c r="AF129" s="2"/>
     </row>
-    <row r="130" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>7</v>
       </c>
@@ -5748,13 +5783,13 @@
         <v>129</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D130" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="F130" s="7">
         <v>0</v>
@@ -5802,7 +5837,7 @@
       <c r="BF130" s="3"/>
       <c r="BG130" s="3"/>
     </row>
-    <row r="131" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>7</v>
       </c>
@@ -5810,13 +5845,13 @@
         <v>130</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F131" s="7">
         <v>0</v>
@@ -5840,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>7</v>
       </c>
@@ -5848,13 +5883,13 @@
         <v>131</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F132" s="7">
         <v>0</v>
@@ -5878,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>7</v>
       </c>
@@ -5886,13 +5921,13 @@
         <v>132</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F133" s="7">
         <v>0</v>
